--- a/Экономика/3. РАСЧЕТ ПОКАЗАТЕЛЕЙ ЭФФЕКТИВНОСТИ ИСПОЛЬЗОВАНИЯ ПРОГРАММНОГО ПРОДУКТА.xlsx
+++ b/Экономика/3. РАСЧЕТ ПОКАЗАТЕЛЕЙ ЭФФЕКТИВНОСТИ ИСПОЛЬЗОВАНИЯ ПРОГРАММНОГО ПРОДУКТА.xlsx
@@ -181,10 +181,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1578,7 +1578,7 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1783,14 +1783,14 @@
       <c r="J15" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1799,12 +1799,12 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="4">
         <f>W3</f>
         <v>2.7683333333333335</v>
@@ -1835,14 +1835,14 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
       <c r="G20" s="4">
         <v>2500</v>
       </c>
@@ -1853,14 +1853,14 @@
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
       <c r="G21" s="4">
         <f>W6</f>
         <v>171954389.9411765</v>
@@ -1873,14 +1873,14 @@
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
       <c r="G22" s="4">
         <f>W1</f>
         <v>153727188.41874528</v>
@@ -1893,14 +1893,14 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
       <c r="G23" s="4" t="s">
         <v>25</v>
       </c>
@@ -1911,14 +1911,14 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
       <c r="G24" s="4">
         <v>2</v>
       </c>
@@ -1929,14 +1929,14 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
       <c r="G25" s="4">
         <f>W5</f>
         <v>41079059.746495999</v>
@@ -1949,14 +1949,14 @@
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
       <c r="G26" s="4">
         <f>C12</f>
         <v>-41267746.871002115</v>
@@ -1969,14 +1969,14 @@
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="4">
         <f>H13</f>
         <v>5.0114831696289137</v>
@@ -1990,11 +1990,13 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="G19:H19"/>
@@ -2008,19 +2010,17 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A25:F25"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Экономика/3. РАСЧЕТ ПОКАЗАТЕЛЕЙ ЭФФЕКТИВНОСТИ ИСПОЛЬЗОВАНИЯ ПРОГРАММНОГО ПРОДУКТА.xlsx
+++ b/Экономика/3. РАСЧЕТ ПОКАЗАТЕЛЕЙ ЭФФЕКТИВНОСТИ ИСПОЛЬЗОВАНИЯ ПРОГРАММНОГО ПРОДУКТА.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>Цпр</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Зр</t>
+  </si>
+  <si>
+    <t>Зт</t>
   </si>
 </sst>
 </file>
@@ -119,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +144,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -172,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -181,10 +190,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1184,8 +1200,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1201,6 +1217,11 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
+        <row r="5">
+          <cell r="C5">
+            <v>3851.0625</v>
+          </cell>
+        </row>
         <row r="11">
           <cell r="W11">
             <v>2000</v>
@@ -1234,9 +1255,14 @@
             <v>2.7683333333333335</v>
           </cell>
         </row>
+        <row r="26">
+          <cell r="C26">
+            <v>487431902.46472555</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1254,12 +1280,12 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4">
-            <v>41079059.746495999</v>
+            <v>164316238.985984</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1277,7 +1303,7 @@
       <sheetData sheetId="0">
         <row r="4">
           <cell r="C4">
-            <v>171954389.9411765</v>
+            <v>687817559.76470602</v>
           </cell>
         </row>
       </sheetData>
@@ -1578,12 +1604,13 @@
   <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1652,7 +1679,7 @@
       </c>
       <c r="C5" s="3">
         <f>H5+W1</f>
-        <v>205867016.54374528</v>
+        <v>362286500.91874528</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
@@ -1663,7 +1690,7 @@
       </c>
       <c r="H5" s="3">
         <f>W2*W3*H6/W4</f>
-        <v>52139828.125</v>
+        <v>208559312.5</v>
       </c>
       <c r="J5" s="2"/>
       <c r="U5" t="s">
@@ -1674,7 +1701,7 @@
       </c>
       <c r="W5" s="1">
         <f>[4]Лист1!C4</f>
-        <v>41079059.746495999</v>
+        <v>164316238.985984</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1685,9 +1712,9 @@
       <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="H6">
-        <f>G20</f>
-        <v>2500</v>
+      <c r="H6" s="7">
+        <f>I20</f>
+        <v>10000</v>
       </c>
       <c r="J6" s="2"/>
       <c r="U6" t="s">
@@ -1698,7 +1725,7 @@
       </c>
       <c r="W6" s="1">
         <f>[5]Лист1!C4</f>
-        <v>171954389.9411765</v>
+        <v>687817559.76470602</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1716,6 +1743,16 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
+      <c r="U8" t="s">
+        <v>27</v>
+      </c>
+      <c r="V8" t="s">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1">
+        <f>[3]Лист1!C26</f>
+        <v>487431902.46472555</v>
+      </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
@@ -1738,7 +1775,7 @@
       </c>
       <c r="C12" s="3">
         <f>W5-C13*C5</f>
-        <v>-41267746.871002115</v>
+        <v>19401638.618485868</v>
       </c>
       <c r="E12" s="2"/>
       <c r="J12" s="2"/>
@@ -1762,7 +1799,7 @@
       </c>
       <c r="H13">
         <f>C5/W5</f>
-        <v>5.0114831696289137</v>
+        <v>2.2048125197756501</v>
       </c>
       <c r="J13" s="2"/>
     </row>
@@ -1783,14 +1820,14 @@
       <c r="J15" s="2"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="4" t="s">
         <v>13</v>
       </c>
@@ -1799,12 +1836,12 @@
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1815,17 +1852,16 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="4">
-        <f>W3</f>
-        <v>2.7683333333333335</v>
+        <v>5</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
@@ -1835,56 +1871,53 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
       <c r="G20" s="4">
-        <v>2500</v>
+        <v>10000</v>
       </c>
       <c r="H20" s="4"/>
-      <c r="I20" s="4">
-        <v>2500</v>
-      </c>
-      <c r="J20" s="4"/>
+      <c r="I20" s="8">
+        <v>10000</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="9">
         <f>W6</f>
-        <v>171954389.9411765</v>
-      </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4">
-        <f>W6</f>
-        <v>171954389.9411765</v>
-      </c>
-      <c r="J21" s="4"/>
+        <v>687817559.76470602</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9">
+        <f>W8</f>
+        <v>487431902.46472555</v>
+      </c>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4">
-        <f>W1</f>
-        <v>153727188.41874528</v>
-      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4">
         <f>W1</f>
@@ -1893,17 +1926,15 @@
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
         <v>25</v>
@@ -1911,17 +1942,15 @@
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4">
-        <v>2</v>
-      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4">
         <v>2</v>
@@ -1929,74 +1958,69 @@
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4">
-        <f>W5</f>
-        <v>41079059.746495999</v>
-      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4">
         <f>W5</f>
-        <v>41079059.746495999</v>
+        <v>164316238.985984</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4">
-        <f>C12</f>
-        <v>-41267746.871002115</v>
-      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4">
         <f>C12</f>
-        <v>-41267746.871002115</v>
+        <v>19401638.618485868</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4">
-        <f>H13</f>
-        <v>5.0114831696289137</v>
-      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4">
         <f>H13</f>
-        <v>5.0114831696289137</v>
+        <v>2.2048125197756501</v>
       </c>
       <c r="J27" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A17:F18"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I25:J25"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="G19:H19"/>
@@ -2010,17 +2034,13 @@
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:F24"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A17:F18"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="I24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
